--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/ValueSet-jp-medicallicensecertificate-vs.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/ValueSet-jp-medicallicensecertificate-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-27T00:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
